--- a/biology/Botanique/Xyris_difformis/Xyris_difformis.xlsx
+++ b/biology/Botanique/Xyris_difformis/Xyris_difformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xyris difformis est une espèce de la famille des Xyridaceae. Dénommé en français Xyris difforme ou herbe aux yeux jaunes des tourbières est une espèce nord-américaine de plante à fleurs. Il est originaire de l'est et du sud des États-Unis, de l'est et du centre du Canada et de l'Amérique centrale[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xyris difformis est une espèce de la famille des Xyridaceae. Dénommé en français Xyris difforme ou herbe aux yeux jaunes des tourbières est une espèce nord-américaine de plante à fleurs. Il est originaire de l'est et du sud des États-Unis, de l'est et du centre du Canada et de l'Amérique centrale,.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xyris difformis est une plante herbacée vivace atteignant 90 cm de haut avec des feuilles ressemblant à de l'herbe atteignant 50  cm de long et des fleurs jaunes[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xyris difformis est une plante herbacée vivace atteignant 90 cm de haut avec des feuilles ressemblant à de l'herbe atteignant 50  cm de long et des fleurs jaunes,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants[4] : Canada, États-Unis.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon se rencontre dans les pays suivants : Canada, États-Unis.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (26 décembre 2023)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (26 décembre 2023) :
 Xyris difformis var. curtissii (Malme) Kral
 Xyris difformis var. difformis</t>
         </is>
@@ -605,10 +623,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xyris difformis Chapm.[5].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Xyris difforme[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Xyris difformis Chapm..
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Xyris difforme.
 </t>
         </is>
       </c>
